--- a/meta_stra_framwork/result/diff/vol.xlsx
+++ b/meta_stra_framwork/result/diff/vol.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']</t>
   </si>
@@ -29,6 +29,27 @@
   </si>
   <si>
     <t>600009.XSHG</t>
+  </si>
+  <si>
+    <t>600010.XSHG</t>
+  </si>
+  <si>
+    <t>600011.XSHG</t>
+  </si>
+  <si>
+    <t>600015.XSHG</t>
+  </si>
+  <si>
+    <t>600016.XSHG</t>
+  </si>
+  <si>
+    <t>600018.XSHG</t>
+  </si>
+  <si>
+    <t>600019.XSHG</t>
+  </si>
+  <si>
+    <t>600023.XSHG</t>
   </si>
 </sst>
 </file>
@@ -386,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,10 +426,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,10 +437,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,10 +448,87 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.037</v>
+      </c>
+      <c r="C5">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.024</v>
+      </c>
+      <c r="C6">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.06</v>
+      </c>
+      <c r="C7">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.013</v>
+      </c>
+      <c r="C8">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.096</v>
+      </c>
+      <c r="C9">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.026</v>
+      </c>
+      <c r="C10">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.063</v>
+      </c>
+      <c r="C11">
+        <v>0.025</v>
       </c>
     </row>
   </sheetData>
